--- a/data/trans_dic/CONS_COL-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COL-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,12 +633,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -647,32 +648,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
     </row>
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0; 0,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>0,0; 5,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,0; 2,34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,37%</t>
         </is>
       </c>
     </row>
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 1,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0,62; 4,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 2,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>0,21; 2,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 1,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,58; 2,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>2,0; 5,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 4,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>2,2; 6,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>0,11; 1,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 2,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,7; 4,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>1,2; 3,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 2,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>1,73; 4,49</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,7%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>4,69; 8,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>1,43; 8,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>6,06; 11,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,84</t>
+          <t>2,59; 5,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,71</t>
+          <t>4,63; 8,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>6,4; 11,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,72</t>
+          <t>3,91; 6,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,99</t>
+          <t>2,36; 7,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>6,91; 10,61</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>24,86%</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,51</t>
+          <t>16,12; 22,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,59</t>
+          <t>15,04; 22,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>20,82; 30,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,05</t>
+          <t>9,83; 14,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,19</t>
+          <t>18,45; 25,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>19,98; 28,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,38</t>
+          <t>13,47; 17,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,44</t>
+          <t>17,91; 23,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,51</t>
+          <t>21,66; 28,37</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>35,44%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>40,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>27,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>62,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>39,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>31,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>50,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>39,71%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,3; 6,69</t>
+          <t>31,84; 40,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,9</t>
+          <t>20,76; 30,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,21</t>
+          <t>36,0; 44,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,11</t>
+          <t>24,32; 31,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,73</t>
+          <t>29,15; 86,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,39</t>
+          <t>34,8; 43,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,91</t>
+          <t>28,46; 34,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,97</t>
+          <t>27,63; 78,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,04</t>
+          <t>36,61; 43,24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>38,31%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>30,76%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>37,52%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>45,7%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>37,67%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>42,68%</t>
         </is>
       </c>
     </row>
@@ -1345,54 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,52; 11,52</t>
+          <t>35,19; 44,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,49; 11,47</t>
+          <t>31,39; 44,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,72; 9,27</t>
+          <t>33,82; 42,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,38; 11,42</t>
+          <t>27,49; 34,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,63; 7,44</t>
+          <t>33,22; 42,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,36</t>
+          <t>41,29; 50,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,62</t>
+          <t>31,59; 37,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,1; 8,79</t>
+          <t>34,13; 41,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,56; 6,78</t>
+          <t>39,12; 45,76</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1402,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>16,3%</t>
         </is>
       </c>
     </row>
@@ -1455,398 +1456,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>20,55; 28,97</t>
+          <t>15,09; 17,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,01; 23,31</t>
+          <t>6,67; 11,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,21; 21,83</t>
+          <t>14,3; 16,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>19,98; 28,23</t>
+          <t>11,65; 13,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,12; 23,25</t>
+          <t>12,7; 42,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,87; 13,94</t>
+          <t>15,68; 18,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,65; 27,38</t>
+          <t>13,55; 15,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,43; 22,22</t>
+          <t>11,02; 27,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,4; 16,93</t>
+          <t>15,43; 17,37</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>39,83%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>27,89%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>34,57%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>38,31%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>45,99%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>26,42%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>39,14%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>38,46%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>30,41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>35,81; 44,13</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>24,1; 31,68</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>31,06; 38,27</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>33,98; 42,67</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>31,39; 71,48</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>23,31; 29,56</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>35,99; 42,15</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>29,64; 58,9</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>27,76; 32,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>38,76%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>35,58%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>37,8%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>45,38%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>41,72%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>29,9%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>42,26%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>39,31%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>33,19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>34,55; 43,29</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>30,73; 39,95</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>33,92; 41,45</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>41,16; 49,68</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>38,1; 45,32</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>26,8; 32,96</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>39,14; 45,33</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>36,47; 41,88</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>30,94; 35,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>19,6%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>12,43%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>13,86%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>19,73%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>16,58%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>10,91%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>19,67%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>14,63%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>12,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>18,16; 20,99</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>11,33; 13,53</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>12,85; 14,87</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>18,31; 21,27</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>13,79; 25,75</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>10,11; 11,77</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>18,75; 20,73</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>13,07; 20,61</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>11,71; 12,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -1856,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para el colesterol</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1595</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1595</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 320</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4766</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1196</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 344</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8785</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9390</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 332</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8885</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7957</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3322</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3104</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2057</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3104</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5379</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2124</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2857</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1132; 7560</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 326</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>737; 9093</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>442; 5820</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2104</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>858; 8312</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2279; 10488</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3270</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5920</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9426</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4553</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3796</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8941</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13979</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1895; 5249</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2095; 12566</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5472; 16385</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>110; 1359</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1028; 7048</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1747; 10184</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2297; 6002</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4653; 16112</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8609; 22333</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8723</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>28108</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>25512</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5267</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>25970</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>24594</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13991</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>54078</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>50106</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6540; 11572</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8994; 52269</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>17993; 33759</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3579; 7815</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>18722; 33535</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>17845; 32677</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10853; 17458</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>24359; 75941</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>39777; 61122</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>24431</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>63695</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>59773</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17581</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>69546</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>61755</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>42012</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>133241</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>121528</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>20445; 28569</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>51013; 77176</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>48856; 70864</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>14489; 21449</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>58838; 81077</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>50770; 73429</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>36944; 47622</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>117837; 151803</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>105882; 138679</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>38134</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>53012</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>74243</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>31489</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>280797</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>73767</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>69623</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>333810</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>148010</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>34265; 43241</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>43201; 64300</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>66266; 82230</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>27942; 35938</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>131925; 389646</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>65654; 82889</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>63332; 76062</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>182532; 518583</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>136441; 161168</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>38119</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>57545</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>56137</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>41201</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>87640</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>96802</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>79320</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>145185</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>152939</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>33904; 42512</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>47648; 67321</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>49554; 62838</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>36814; 45721</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>77605; 98375</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>87455; 106241</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>72747; 85917</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>131538; 160902</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>140179; 163972</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>113238</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>208281</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>228412</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>96065</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>471698</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>265124</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>209303</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>679980</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>493536</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>105139; 122446</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>140230; 242999</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>209208; 248537</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>88165; 103761</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>283334; 948226</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>245219; 288627</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>197012; 219428</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>477701; 1207517</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>467091; 525931</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_COL-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COL-Edad-trans_dic.xlsx
@@ -686,22 +686,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1766,22 +1766,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0; 320</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 4766</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0; 1196</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0; 344</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0; 332</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2857</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 326</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_COL-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COL-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol</t>
+          <t>Consumo de medicamentos para el colesterol (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol</t>
+          <t>Consumo de medicamentos para el colesterol (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_COL-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COL-Edad-trans_dic.xlsx
@@ -706,7 +706,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,77</t>
+          <t>0,0; 4,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,11</t>
+          <t>0,0; 1,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,07</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,89</t>
+          <t>0,24; 2,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,6</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,53</t>
+          <t>0,15; 1,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,54</t>
+          <t>1,79; 5,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,04</t>
+          <t>0,71; 3,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,39</t>
+          <t>0,1; 2,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,18</t>
+          <t>0,38; 2,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,12</t>
+          <t>1,15; 2,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,54</t>
+          <t>0,7; 2,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,3</t>
+          <t>4,77; 8,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,43; 8,33</t>
+          <t>1,45; 8,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,66</t>
+          <t>2,23; 4,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 8,28</t>
+          <t>4,69; 8,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,29</t>
+          <t>3,8; 6,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 7,36</t>
+          <t>2,59; 7,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,12; 22,52</t>
+          <t>15,35; 21,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,04; 22,76</t>
+          <t>14,8; 22,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,83; 14,56</t>
+          <t>9,8; 14,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,45; 25,42</t>
+          <t>18,66; 25,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,47; 17,37</t>
+          <t>13,04; 16,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,91; 23,07</t>
+          <t>17,59; 22,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>31,29%</t>
+          <t>31,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>31,84; 40,19</t>
+          <t>30,9; 38,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,76; 30,9</t>
+          <t>20,64; 30,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,32; 31,28</t>
+          <t>25,2; 32,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,15; 86,08</t>
+          <t>29,66; 89,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,46; 34,18</t>
+          <t>29,12; 34,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,63; 78,49</t>
+          <t>26,88; 80,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>38,38%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>30,14%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>33,46%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>35,19; 44,12</t>
+          <t>34,02; 43,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>31,39; 44,36</t>
+          <t>31,78; 44,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,49; 34,14</t>
+          <t>26,89; 33,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>33,22; 42,11</t>
+          <t>32,92; 42,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,59; 37,31</t>
+          <t>30,46; 36,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34,13; 41,75</t>
+          <t>33,82; 41,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,09; 17,57</t>
+          <t>13,82; 15,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,67; 11,56</t>
+          <t>6,77; 11,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,65; 13,71</t>
+          <t>11,25; 13,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,7; 42,5</t>
+          <t>12,79; 46,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,55; 15,1</t>
+          <t>12,75; 14,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,02; 27,86</t>
+          <t>10,92; 27,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0; 8785</t>
+          <t>0; 7411</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0; 8885</t>
+          <t>0; 7981</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>431</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>431</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2124</t>
+          <t>0; 1498</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>737; 9093</t>
+          <t>759; 9107</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2104</t>
+          <t>0; 1556</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>858; 8312</t>
+          <t>827; 8498</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3270</t>
+          <t>3247</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>675</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3796</t>
+          <t>3922</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -2092,12 +2092,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1895; 5249</t>
+          <t>1857; 5205</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2095; 12566</t>
+          <t>2199; 12368</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>110; 1359</t>
+          <t>106; 2313</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1028; 7048</t>
+          <t>1215; 7624</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2297; 6002</t>
+          <t>2460; 6182</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4653; 16112</t>
+          <t>4460; 15988</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8723</t>
+          <t>9129</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5267</t>
+          <t>5187</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13991</t>
+          <t>14316</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6540; 11572</t>
+          <t>6907; 12221</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8994; 52269</t>
+          <t>9079; 52137</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3579; 7815</t>
+          <t>3397; 7270</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18722; 33535</t>
+          <t>18978; 34308</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10853; 17458</t>
+          <t>11301; 17839</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24359; 75941</t>
+          <t>26776; 77671</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>24431</t>
+          <t>23834</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17581</t>
+          <t>18138</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>42012</t>
+          <t>41972</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>20445; 28569</t>
+          <t>19894; 27878</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>51013; 77176</t>
+          <t>50179; 77613</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14489; 21449</t>
+          <t>14894; 21842</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>58838; 81077</t>
+          <t>59521; 81363</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>36944; 47622</t>
+          <t>36708; 47430</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>117837; 151803</t>
+          <t>115774; 149789</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>38134</t>
+          <t>36501</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>31489</t>
+          <t>33229</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>69623</t>
+          <t>69729</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>34265; 43241</t>
+          <t>32282; 40630</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>43201; 64300</t>
+          <t>42957; 62926</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>27942; 35938</t>
+          <t>29173; 37382</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>131925; 389646</t>
+          <t>134233; 405077</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>63332; 76062</t>
+          <t>64140; 76086</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>182532; 518583</t>
+          <t>177611; 529813</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>38119</t>
+          <t>34240</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>41201</t>
+          <t>39884</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>79320</t>
+          <t>74124</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>33904; 42512</t>
+          <t>30356; 38422</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>47648; 67321</t>
+          <t>48232; 67093</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>36814; 45721</t>
+          <t>35584; 44421</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>77605; 98375</t>
+          <t>76912; 98350</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>72747; 85917</t>
+          <t>67474; 80380</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>131538; 160902</t>
+          <t>130329; 159750</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>113238</t>
+          <t>107381</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>96065</t>
+          <t>97112</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>209303</t>
+          <t>204494</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>105139; 122446</t>
+          <t>100066; 115764</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>140230; 242999</t>
+          <t>142409; 245913</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>88165; 103761</t>
+          <t>89726; 105385</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>283334; 948226</t>
+          <t>285289; 1033907</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>197012; 219428</t>
+          <t>193928; 216346</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>477701; 1207517</t>
+          <t>473415; 1206082</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_COL-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COL-Edad-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -648,32 +648,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,88%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,94%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,39%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,47%</t>
         </is>
       </c>
     </row>
@@ -701,32 +701,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 4,21</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,51</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,02</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,51</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 2,21</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,34</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,9</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,34</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,57%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,82%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,99%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,97%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,3%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,57%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,37%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 4,15</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 2,0</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 2,98</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 2,75</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 4,15</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,24; 2,9</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 2,75</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>0,17; 1,62</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 2,66</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,09</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 1,56</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,58; 2,66</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>3,12%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,91%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,8%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,61%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,94%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,81%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>1,83%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,41%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>2,81%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1,05; 4,86</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 6,6</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1,79; 5,01</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 3,98</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 6,6</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0,72; 3,05</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 4,1</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,1; 2,09</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 2,36</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,7; 4,1</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>1,21; 3,32</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1,73; 4,49</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>1,15; 2,88</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,7; 2,52</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 4,49</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8,59%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>6,31%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,48%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,59%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8,82%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>3,4%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,42%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>8,82%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8,7%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>4,82%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,24%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>8,7%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>4,58; 9,6</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6,06; 11,37</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>4,77; 8,44</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,45; 8,31</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6,06; 11,37</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>4,54; 8,19</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6,4; 11,71</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>2,23; 4,77</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>4,69; 8,48</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>6,4; 11,71</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>5,09; 8,16</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6,91; 10,61</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>3,8; 6,0</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 7,53</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>6,91; 10,61</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>18,01%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>25,47%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>18,39%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>18,78%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>25,47%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>21,7%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>24,3%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>11,94%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>21,81%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>24,3%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>19,83%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24,86%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>14,91%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>20,25%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>24,86%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>14,37; 22,0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20,82; 30,19</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>15,35; 21,51</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>14,8; 22,89</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>20,82; 30,19</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>18,65; 25,22</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19,98; 28,9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>9,8; 14,38</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>18,66; 25,51</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>19,98; 28,9</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>17,17; 22,17</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>21,66; 28,37</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>13,04; 16,85</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>17,59; 22,76</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>21,66; 28,37</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>24,89%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>40,34%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>34,94%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>25,48%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>40,34%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>30,98%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>39,1%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>28,7%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>62,04%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>39,1%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>28,17%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>39,71%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>31,66%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>50,52%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>39,71%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>20,43; 29,89</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>36,0; 44,68</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>30,9; 38,89</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>20,64; 30,24</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>36,0; 44,68</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>26,86; 35,12</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>34,8; 43,93</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>25,2; 32,29</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>29,66; 89,49</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>34,8; 43,93</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>24,95; 31,48</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>36,61; 43,24</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>29,12; 34,55</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>26,88; 80,19</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>36,61; 43,24</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>37,75%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>38,31%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>38,38%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>37,91%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>38,31%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>37,37%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>45,7%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>30,14%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>37,52%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>45,7%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>42,68%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>33,46%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>37,67%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>42,68%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>31,93; 44,16</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>33,82; 42,88</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>34,02; 43,06</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>31,78; 44,21</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>33,82; 42,88</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>32,69; 42,16</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>41,29; 50,16</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>26,89; 33,57</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>32,92; 42,1</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>41,29; 50,16</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>33,85; 41,31</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>39,12; 45,76</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>30,46; 36,28</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>33,82; 41,45</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>39,12; 45,76</t>
         </is>
       </c>
     </row>
@@ -1403,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>10,92%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15,61%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>14,83%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>9,91%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>15,61%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>13,44%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>16,95%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>12,18%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>21,14%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>16,95%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>12,22%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16,3%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>13,44%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>15,69%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>16,3%</t>
         </is>
       </c>
     </row>
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>9,57; 12,16</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>14,3; 16,99</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>13,82; 15,99</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>6,77; 11,7</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>14,3; 16,99</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>12,44; 14,59</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>15,68; 18,45</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>11,25; 13,21</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>12,79; 46,34</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>15,68; 18,45</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>11,28; 13,07</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>15,43; 17,37</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>12,75; 14,22</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>10,92; 27,83</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>15,43; 17,37</t>
         </is>
       </c>
     </row>
@@ -1590,47 +1590,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1675,32 +1675,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -1728,32 +1728,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1595</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1621</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>1595</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>1621</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>1595</t>
         </is>
       </c>
     </row>
@@ -1781,32 +1781,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0; 9255</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9390</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0; 7411</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0; 9390</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>0; 10171</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7957</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0; 7981</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0; 7957</t>
         </is>
       </c>
     </row>
@@ -1823,47 +1823,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
         </is>
       </c>
     </row>
@@ -1876,47 +1876,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3322</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>431</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3218</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2057</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3322</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3104</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2057</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>3218</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5379</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>431</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3104</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5379</t>
         </is>
       </c>
     </row>
@@ -1929,47 +1929,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1132; 7560</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0; 1498</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>950; 8452</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>442; 5820</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1132; 7560</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>759; 9107</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>442; 5820</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>934; 8814</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2279; 10488</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0; 1556</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>827; 8498</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2279; 10488</t>
         </is>
       </c>
     </row>
@@ -1986,47 +1986,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
         </is>
       </c>
     </row>
@@ -2039,47 +2039,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>9394</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9426</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>3247</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5920</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>9426</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>5679</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4553</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>675</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4553</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>15073</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>13979</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>3922</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>8941</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>13979</t>
         </is>
       </c>
     </row>
@@ -2092,47 +2092,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3879; 17913</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5472; 16385</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1857; 5205</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2199; 12368</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5472; 16385</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>2707; 11384</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1747; 10184</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>106; 2313</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1215; 7624</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1747; 10184</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>8975; 24645</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8609; 22333</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>2460; 6182</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>4460; 15988</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>8609; 22333</t>
         </is>
       </c>
     </row>
@@ -2149,47 +2149,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>80</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>84</t>
         </is>
       </c>
     </row>
@@ -2202,47 +2202,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>29161</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>25512</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>9129</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>28108</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>25512</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>27572</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24594</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>5187</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>25970</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>24594</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>56733</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>50106</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>14316</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>54078</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>50106</t>
         </is>
       </c>
     </row>
@@ -2255,47 +2255,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>19436; 40705</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17993; 33759</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>6907; 12221</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>9079; 52137</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>17993; 33759</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>20035; 36138</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>17845; 32677</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>3397; 7270</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>18978; 34308</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>17845; 32677</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>44063; 70582</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>39777; 61122</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>11301; 17839</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>26776; 77671</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>39777; 61122</t>
         </is>
       </c>
     </row>
@@ -2312,29 +2312,29 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>137</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>102</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
           <t>102</t>
@@ -2342,17 +2342,17 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>239</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>197</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>66268</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>59773</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>23834</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>63695</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>59773</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>78207</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>61755</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>18138</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>69546</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>61755</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>144474</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>121528</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>41972</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>133241</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>121528</t>
         </is>
       </c>
     </row>
@@ -2418,47 +2418,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>52875; 80987</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>48856; 70864</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>19894; 27878</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>50179; 77613</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>48856; 70864</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>67192; 90902</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>50770; 73429</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>14894; 21842</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>59521; 81363</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>50770; 73429</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>125081; 161474</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>105882; 138679</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>36708; 47430</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>115774; 149789</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>105882; 138679</t>
         </is>
       </c>
     </row>
@@ -2475,47 +2475,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>220</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>196</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>416</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>419</t>
         </is>
       </c>
     </row>
@@ -2528,47 +2528,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>57568</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>74243</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>36501</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>53012</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>74243</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>83664</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>73767</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>33229</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>280797</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>73767</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>141232</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>148010</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>69729</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>333810</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>148010</t>
         </is>
       </c>
     </row>
@@ -2581,47 +2581,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>47243; 69127</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>66266; 82230</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>32282; 40630</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>42957; 62926</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>66266; 82230</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>72542; 94824</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>65654; 82889</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>29173; 37382</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>134233; 405077</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>65654; 82889</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>125056; 157825</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>136441; 161168</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>64140; 76086</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>177611; 529813</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>136441; 161168</t>
         </is>
       </c>
     </row>
@@ -2638,47 +2638,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>216</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>248</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>464</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>257</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>431</t>
         </is>
       </c>
     </row>
@@ -2691,47 +2691,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>62513</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>56137</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>34240</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>57545</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>56137</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>95898</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>96802</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>39884</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>87640</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>96802</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>158412</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>152939</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>74124</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>145185</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>152939</t>
         </is>
       </c>
     </row>
@@ -2744,47 +2744,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>52870; 73124</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>49554; 62838</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>30356; 38422</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>48232; 67093</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>49554; 62838</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>83897; 108178</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>87455; 106241</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>35584; 44421</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>76912; 98350</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>87455; 106241</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>142901; 174424</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>140179; 163972</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>67474; 80380</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>130329; 159750</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>140179; 163972</t>
         </is>
       </c>
     </row>
@@ -2801,47 +2801,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
           <t>642</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>282</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
         <is>
           <t>579</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>579</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>496</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>582</t>
-        </is>
-      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
           <t>1221</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>778</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>1161</t>
         </is>
       </c>
     </row>
@@ -2854,47 +2854,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>224904</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>228412</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>107381</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>208281</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>228412</t>
-        </is>
-      </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>296270</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>265124</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>97112</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>471698</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>265124</t>
-        </is>
-      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>521174</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>493536</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>204494</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>679980</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>493536</t>
         </is>
       </c>
     </row>
@@ -2907,47 +2907,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>197258; 250631</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>209208; 248537</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>100066; 115764</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>142409; 245913</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>209208; 248537</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>274373; 321651</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>245219; 288627</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>89726; 105385</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>285289; 1033907</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>245219; 288627</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>481171; 557247</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>467091; 525931</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>193928; 216346</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>473415; 1206082</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>467091; 525931</t>
         </is>
       </c>
     </row>
